--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,21 @@
           <t>Timestamp</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Post Length</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Punctuation_Count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hashtag_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,6 +542,15 @@
       </c>
       <c r="J2" t="n">
         <v>1702587159</v>
+      </c>
+      <c r="K2" t="n">
+        <v>135</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -580,6 +604,15 @@
       </c>
       <c r="J3" t="n">
         <v>1698253989</v>
+      </c>
+      <c r="K3" t="n">
+        <v>520</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -635,6 +668,15 @@
       </c>
       <c r="J4" t="n">
         <v>1697742000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1488</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -696,6 +738,15 @@
       <c r="J5" t="n">
         <v>1696608000</v>
       </c>
+      <c r="K5" t="n">
+        <v>1094</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -752,6 +803,15 @@
       <c r="J6" t="n">
         <v>1696532400</v>
       </c>
+      <c r="K6" t="n">
+        <v>1613</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -804,6 +864,15 @@
       </c>
       <c r="J7" t="n">
         <v>1696014000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>998</v>
+      </c>
+      <c r="L7" t="n">
+        <v>27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -861,6 +930,15 @@
       <c r="J8" t="n">
         <v>1695841200</v>
       </c>
+      <c r="K8" t="n">
+        <v>1556</v>
+      </c>
+      <c r="L8" t="n">
+        <v>48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -912,6 +990,15 @@
       </c>
       <c r="J9" t="n">
         <v>1695413039</v>
+      </c>
+      <c r="K9" t="n">
+        <v>521</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -971,6 +1058,15 @@
       <c r="J10" t="n">
         <v>1695322800</v>
       </c>
+      <c r="K10" t="n">
+        <v>1402</v>
+      </c>
+      <c r="L10" t="n">
+        <v>34</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1026,6 +1122,15 @@
       <c r="J11" t="n">
         <v>1695134919</v>
       </c>
+      <c r="K11" t="n">
+        <v>996</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1186,15 @@
       <c r="J12" t="n">
         <v>1695066879</v>
       </c>
+      <c r="K12" t="n">
+        <v>782</v>
+      </c>
+      <c r="L12" t="n">
+        <v>29</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1247,15 @@
       <c r="J13" t="n">
         <v>1694113800</v>
       </c>
+      <c r="K13" t="n">
+        <v>480</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1185,6 +1308,15 @@
       <c r="J14" t="n">
         <v>1693832400</v>
       </c>
+      <c r="K14" t="n">
+        <v>518</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1236,6 +1368,15 @@
       </c>
       <c r="J15" t="n">
         <v>1693511400</v>
+      </c>
+      <c r="K15" t="n">
+        <v>490</v>
+      </c>
+      <c r="L15" t="n">
+        <v>26</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1291,6 +1432,15 @@
       <c r="J16" t="n">
         <v>1693240597</v>
       </c>
+      <c r="K16" t="n">
+        <v>666</v>
+      </c>
+      <c r="L16" t="n">
+        <v>22</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1342,6 +1492,15 @@
       </c>
       <c r="J17" t="n">
         <v>1692806400</v>
+      </c>
+      <c r="K17" t="n">
+        <v>456</v>
+      </c>
+      <c r="L17" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1397,6 +1556,15 @@
       <c r="J18" t="n">
         <v>1692298800</v>
       </c>
+      <c r="K18" t="n">
+        <v>1235</v>
+      </c>
+      <c r="L18" t="n">
+        <v>35</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1450,6 +1618,15 @@
       <c r="J19" t="n">
         <v>1692126000</v>
       </c>
+      <c r="K19" t="n">
+        <v>555</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1500,6 +1677,15 @@
       </c>
       <c r="J20" t="n">
         <v>1691694000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>403</v>
+      </c>
+      <c r="L20" t="n">
+        <v>17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1554,6 +1740,15 @@
       <c r="J21" t="n">
         <v>1691607600</v>
       </c>
+      <c r="K21" t="n">
+        <v>534</v>
+      </c>
+      <c r="L21" t="n">
+        <v>16</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1605,6 +1800,15 @@
       </c>
       <c r="J22" t="n">
         <v>1690999579</v>
+      </c>
+      <c r="K22" t="n">
+        <v>589</v>
+      </c>
+      <c r="L22" t="n">
+        <v>25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1669,6 +1873,15 @@
       <c r="J23" t="n">
         <v>1690894800</v>
       </c>
+      <c r="K23" t="n">
+        <v>874</v>
+      </c>
+      <c r="L23" t="n">
+        <v>30</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1720,6 +1933,15 @@
       </c>
       <c r="J24" t="n">
         <v>1690473600</v>
+      </c>
+      <c r="K24" t="n">
+        <v>670</v>
+      </c>
+      <c r="L24" t="n">
+        <v>22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1775,6 +1997,15 @@
       </c>
       <c r="J25" t="n">
         <v>1690300800</v>
+      </c>
+      <c r="K25" t="n">
+        <v>774</v>
+      </c>
+      <c r="L25" t="n">
+        <v>22</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1837,6 +2068,15 @@
       <c r="J26" t="n">
         <v>1689955200</v>
       </c>
+      <c r="K26" t="n">
+        <v>824</v>
+      </c>
+      <c r="L26" t="n">
+        <v>31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1890,6 +2130,15 @@
       </c>
       <c r="J27" t="n">
         <v>1689870600</v>
+      </c>
+      <c r="K27" t="n">
+        <v>923</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1945,6 +2194,15 @@
       </c>
       <c r="J28" t="n">
         <v>1689361200</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1061</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29</v>
+      </c>
+      <c r="M28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2003,6 +2261,15 @@
       <c r="J29" t="n">
         <v>1689274800</v>
       </c>
+      <c r="K29" t="n">
+        <v>896</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2058,6 +2325,15 @@
       <c r="J30" t="n">
         <v>1689273284</v>
       </c>
+      <c r="K30" t="n">
+        <v>1131</v>
+      </c>
+      <c r="L30" t="n">
+        <v>40</v>
+      </c>
+      <c r="M30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2106,6 +2382,15 @@
       </c>
       <c r="J31" t="n">
         <v>1688475600</v>
+      </c>
+      <c r="K31" t="n">
+        <v>154</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2161,6 +2446,15 @@
       <c r="J32" t="n">
         <v>1688130000</v>
       </c>
+      <c r="K32" t="n">
+        <v>936</v>
+      </c>
+      <c r="L32" t="n">
+        <v>32</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2213,6 +2507,15 @@
       </c>
       <c r="J33" t="n">
         <v>1688043600</v>
+      </c>
+      <c r="K33" t="n">
+        <v>875</v>
+      </c>
+      <c r="L33" t="n">
+        <v>27</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -2269,6 +2572,15 @@
       <c r="J34" t="n">
         <v>1687287600</v>
       </c>
+      <c r="K34" t="n">
+        <v>1127</v>
+      </c>
+      <c r="L34" t="n">
+        <v>33</v>
+      </c>
+      <c r="M34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2321,6 +2633,15 @@
       </c>
       <c r="J35" t="n">
         <v>1686747600</v>
+      </c>
+      <c r="K35" t="n">
+        <v>724</v>
+      </c>
+      <c r="L35" t="n">
+        <v>22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2381,6 +2702,15 @@
       <c r="J36" t="n">
         <v>1686574800</v>
       </c>
+      <c r="K36" t="n">
+        <v>1968</v>
+      </c>
+      <c r="L36" t="n">
+        <v>43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2435,6 +2765,15 @@
       <c r="J37" t="n">
         <v>1686317400</v>
       </c>
+      <c r="K37" t="n">
+        <v>763</v>
+      </c>
+      <c r="L37" t="n">
+        <v>26</v>
+      </c>
+      <c r="M37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2486,6 +2825,15 @@
       </c>
       <c r="J38" t="n">
         <v>1686056400</v>
+      </c>
+      <c r="K38" t="n">
+        <v>878</v>
+      </c>
+      <c r="L38" t="n">
+        <v>17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2543,6 +2891,15 @@
       <c r="J39" t="n">
         <v>1685646000</v>
       </c>
+      <c r="K39" t="n">
+        <v>1241</v>
+      </c>
+      <c r="L39" t="n">
+        <v>34</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2591,6 +2948,15 @@
       </c>
       <c r="J40" t="n">
         <v>1685365200</v>
+      </c>
+      <c r="K40" t="n">
+        <v>93</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2644,6 +3010,15 @@
       </c>
       <c r="J41" t="n">
         <v>1685127600</v>
+      </c>
+      <c r="K41" t="n">
+        <v>710</v>
+      </c>
+      <c r="L41" t="n">
+        <v>24</v>
+      </c>
+      <c r="M41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2699,6 +3074,15 @@
       </c>
       <c r="J42" t="n">
         <v>1684879200</v>
+      </c>
+      <c r="K42" t="n">
+        <v>851</v>
+      </c>
+      <c r="L42" t="n">
+        <v>19</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2761,6 +3145,15 @@
       <c r="J43" t="n">
         <v>1684522800</v>
       </c>
+      <c r="K43" t="n">
+        <v>1205</v>
+      </c>
+      <c r="L43" t="n">
+        <v>47</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2813,6 +3206,15 @@
       </c>
       <c r="J44" t="n">
         <v>1684350000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>642</v>
+      </c>
+      <c r="L44" t="n">
+        <v>16</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2868,6 +3270,15 @@
       <c r="J45" t="n">
         <v>1683921903</v>
       </c>
+      <c r="K45" t="n">
+        <v>663</v>
+      </c>
+      <c r="L45" t="n">
+        <v>22</v>
+      </c>
+      <c r="M45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2921,6 +3332,15 @@
       <c r="J46" t="n">
         <v>1683660600</v>
       </c>
+      <c r="K46" t="n">
+        <v>555</v>
+      </c>
+      <c r="L46" t="n">
+        <v>17</v>
+      </c>
+      <c r="M46" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2970,6 +3390,15 @@
       </c>
       <c r="J47" t="n">
         <v>1683226800</v>
+      </c>
+      <c r="K47" t="n">
+        <v>343</v>
+      </c>
+      <c r="L47" t="n">
+        <v>12</v>
+      </c>
+      <c r="M47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -3024,6 +3453,15 @@
       <c r="J48" t="n">
         <v>1683118800</v>
       </c>
+      <c r="K48" t="n">
+        <v>668</v>
+      </c>
+      <c r="L48" t="n">
+        <v>23</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3074,6 +3512,15 @@
       </c>
       <c r="J49" t="n">
         <v>1682622000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>483</v>
+      </c>
+      <c r="L49" t="n">
+        <v>16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -3126,6 +3573,15 @@
       </c>
       <c r="J50" t="n">
         <v>1682017200</v>
+      </c>
+      <c r="K50" t="n">
+        <v>516</v>
+      </c>
+      <c r="L50" t="n">
+        <v>13</v>
+      </c>
+      <c r="M50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -3181,6 +3637,15 @@
       <c r="J51" t="n">
         <v>1681941600</v>
       </c>
+      <c r="K51" t="n">
+        <v>970</v>
+      </c>
+      <c r="L51" t="n">
+        <v>28</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3233,6 +3698,15 @@
       <c r="J52" t="n">
         <v>1680807600</v>
       </c>
+      <c r="K52" t="n">
+        <v>564</v>
+      </c>
+      <c r="L52" t="n">
+        <v>17</v>
+      </c>
+      <c r="M52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3282,6 +3756,15 @@
       </c>
       <c r="J53" t="n">
         <v>1680732000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>625</v>
+      </c>
+      <c r="L53" t="n">
+        <v>30</v>
+      </c>
+      <c r="M53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -3336,6 +3819,15 @@
       <c r="J54" t="n">
         <v>1680289200</v>
       </c>
+      <c r="K54" t="n">
+        <v>724</v>
+      </c>
+      <c r="L54" t="n">
+        <v>20</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3385,6 +3877,15 @@
       </c>
       <c r="J55" t="n">
         <v>1680213600</v>
+      </c>
+      <c r="K55" t="n">
+        <v>460</v>
+      </c>
+      <c r="L55" t="n">
+        <v>17</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -3437,6 +3938,15 @@
       </c>
       <c r="J56" t="n">
         <v>1680030000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>450</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3492,6 +4002,15 @@
       <c r="J57" t="n">
         <v>1679943600</v>
       </c>
+      <c r="K57" t="n">
+        <v>644</v>
+      </c>
+      <c r="L57" t="n">
+        <v>17</v>
+      </c>
+      <c r="M57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3544,6 +4063,15 @@
       <c r="J58" t="n">
         <v>1679684400</v>
       </c>
+      <c r="K58" t="n">
+        <v>648</v>
+      </c>
+      <c r="L58" t="n">
+        <v>17</v>
+      </c>
+      <c r="M58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3596,6 +4124,15 @@
       <c r="J59" t="n">
         <v>1679500800</v>
       </c>
+      <c r="K59" t="n">
+        <v>871</v>
+      </c>
+      <c r="L59" t="n">
+        <v>24</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3646,6 +4183,15 @@
       </c>
       <c r="J60" t="n">
         <v>1679420880</v>
+      </c>
+      <c r="K60" t="n">
+        <v>515</v>
+      </c>
+      <c r="L60" t="n">
+        <v>16</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -3700,6 +4246,15 @@
       <c r="J61" t="n">
         <v>1677712085</v>
       </c>
+      <c r="K61" t="n">
+        <v>426</v>
+      </c>
+      <c r="L61" t="n">
+        <v>20</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3752,6 +4307,15 @@
       </c>
       <c r="J62" t="n">
         <v>1677258109</v>
+      </c>
+      <c r="K62" t="n">
+        <v>566</v>
+      </c>
+      <c r="L62" t="n">
+        <v>18</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3808,6 +4372,15 @@
       <c r="J63" t="n">
         <v>1677085351</v>
       </c>
+      <c r="K63" t="n">
+        <v>945</v>
+      </c>
+      <c r="L63" t="n">
+        <v>27</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3863,6 +4436,15 @@
       <c r="J64" t="n">
         <v>1676998833</v>
       </c>
+      <c r="K64" t="n">
+        <v>943</v>
+      </c>
+      <c r="L64" t="n">
+        <v>36</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3915,6 +4497,15 @@
       <c r="J65" t="n">
         <v>1676566864</v>
       </c>
+      <c r="K65" t="n">
+        <v>510</v>
+      </c>
+      <c r="L65" t="n">
+        <v>16</v>
+      </c>
+      <c r="M65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3967,6 +4558,15 @@
       <c r="J66" t="n">
         <v>1676480504</v>
       </c>
+      <c r="K66" t="n">
+        <v>511</v>
+      </c>
+      <c r="L66" t="n">
+        <v>24</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4017,6 +4617,15 @@
       </c>
       <c r="J67" t="n">
         <v>1676404812</v>
+      </c>
+      <c r="K67" t="n">
+        <v>595</v>
+      </c>
+      <c r="L67" t="n">
+        <v>21</v>
+      </c>
+      <c r="M67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4070,6 +4679,15 @@
       <c r="J68" t="n">
         <v>1676037656</v>
       </c>
+      <c r="K68" t="n">
+        <v>609</v>
+      </c>
+      <c r="L68" t="n">
+        <v>19</v>
+      </c>
+      <c r="M68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4121,6 +4739,15 @@
       </c>
       <c r="J69" t="n">
         <v>1675951215</v>
+      </c>
+      <c r="K69" t="n">
+        <v>460</v>
+      </c>
+      <c r="L69" t="n">
+        <v>16</v>
+      </c>
+      <c r="M69" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -4178,6 +4805,15 @@
       <c r="J70" t="n">
         <v>1675864900</v>
       </c>
+      <c r="K70" t="n">
+        <v>1167</v>
+      </c>
+      <c r="L70" t="n">
+        <v>34</v>
+      </c>
+      <c r="M70" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Hashtag_Count</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,11 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Thu Dec 14 15:52:39 2023</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -613,6 +623,11 @@
       </c>
       <c r="M3" t="n">
         <v>7</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Wed Oct 25 13:13:09 2023</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -677,6 +692,11 @@
       </c>
       <c r="M4" t="n">
         <v>7</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Thu Oct 19 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -747,6 +767,11 @@
       <c r="M5" t="n">
         <v>7</v>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Fri Oct  6 12:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -812,6 +837,11 @@
       <c r="M6" t="n">
         <v>7</v>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Thu Oct  5 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -873,6 +903,11 @@
       </c>
       <c r="M7" t="n">
         <v>7</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Fri Sep 29 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -939,6 +974,11 @@
       <c r="M8" t="n">
         <v>7</v>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Wed Sep 27 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -999,6 +1039,11 @@
       </c>
       <c r="M9" t="n">
         <v>7</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Fri Sep 22 16:03:59 2023</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1067,6 +1112,11 @@
       <c r="M10" t="n">
         <v>7</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Thu Sep 21 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1131,6 +1181,11 @@
       <c r="M11" t="n">
         <v>7</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Tue Sep 19 10:48:39 2023</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1195,6 +1250,11 @@
       <c r="M12" t="n">
         <v>10</v>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Mon Sep 18 15:54:39 2023</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1256,6 +1316,11 @@
       <c r="M13" t="n">
         <v>6</v>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Thu Sep  7 15:10:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1317,6 +1382,11 @@
       <c r="M14" t="n">
         <v>7</v>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Mon Sep  4 09:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1377,6 +1447,11 @@
       </c>
       <c r="M15" t="n">
         <v>6</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Thu Aug 31 15:50:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1441,6 +1516,11 @@
       <c r="M16" t="n">
         <v>9</v>
       </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Mon Aug 28 12:36:37 2023</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1501,6 +1581,11 @@
       </c>
       <c r="M17" t="n">
         <v>6</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Wed Aug 23 12:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1565,6 +1650,11 @@
       <c r="M18" t="n">
         <v>9</v>
       </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Thu Aug 17 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1627,6 +1717,11 @@
       <c r="M19" t="n">
         <v>7</v>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Tue Aug 15 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1686,6 +1781,11 @@
       </c>
       <c r="M20" t="n">
         <v>7</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Thu Aug 10 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1749,6 +1849,11 @@
       <c r="M21" t="n">
         <v>7</v>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Wed Aug  9 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1809,6 +1914,11 @@
       </c>
       <c r="M22" t="n">
         <v>10</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Wed Aug  2 14:06:19 2023</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1882,6 +1992,11 @@
       <c r="M23" t="n">
         <v>12</v>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tue Aug  1 09:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1942,6 +2057,11 @@
       </c>
       <c r="M24" t="n">
         <v>11</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Thu Jul 27 12:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2006,6 +2126,11 @@
       </c>
       <c r="M25" t="n">
         <v>8</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Tue Jul 25 12:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2077,6 +2202,11 @@
       <c r="M26" t="n">
         <v>10</v>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Fri Jul 21 12:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2139,6 +2269,11 @@
       </c>
       <c r="M27" t="n">
         <v>9</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Thu Jul 20 12:30:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2203,6 +2338,11 @@
       </c>
       <c r="M28" t="n">
         <v>10</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Fri Jul 14 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2270,6 +2410,11 @@
       <c r="M29" t="n">
         <v>11</v>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Thu Jul 13 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2334,6 +2479,11 @@
       <c r="M30" t="n">
         <v>6</v>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Thu Jul 13 14:34:44 2023</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2391,6 +2541,11 @@
       </c>
       <c r="M31" t="n">
         <v>5</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Tue Jul  4 09:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2455,6 +2610,11 @@
       <c r="M32" t="n">
         <v>9</v>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Fri Jun 30 09:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2516,6 +2676,11 @@
       </c>
       <c r="M33" t="n">
         <v>10</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Thu Jun 29 09:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2581,6 +2746,11 @@
       <c r="M34" t="n">
         <v>9</v>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tue Jun 20 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2642,6 +2812,11 @@
       </c>
       <c r="M35" t="n">
         <v>8</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Wed Jun 14 09:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2711,6 +2886,11 @@
       <c r="M36" t="n">
         <v>7</v>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Mon Jun 12 09:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2774,6 +2954,11 @@
       <c r="M37" t="n">
         <v>12</v>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Fri Jun  9 09:30:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2834,6 +3019,11 @@
       </c>
       <c r="M38" t="n">
         <v>8</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tue Jun  6 09:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2900,6 +3090,11 @@
       <c r="M39" t="n">
         <v>8</v>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Thu Jun  1 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2957,6 +3152,11 @@
       </c>
       <c r="M40" t="n">
         <v>3</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Mon May 29 09:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3019,6 +3219,11 @@
       </c>
       <c r="M41" t="n">
         <v>8</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Fri May 26 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3083,6 +3288,11 @@
       </c>
       <c r="M42" t="n">
         <v>8</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tue May 23 18:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3154,6 +3364,11 @@
       <c r="M43" t="n">
         <v>12</v>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Fri May 19 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3215,6 +3430,11 @@
       </c>
       <c r="M44" t="n">
         <v>8</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Wed May 17 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3279,6 +3499,11 @@
       <c r="M45" t="n">
         <v>8</v>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Fri May 12 16:05:03 2023</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3341,6 +3566,11 @@
       <c r="M46" t="n">
         <v>8</v>
       </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tue May  9 15:30:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3399,6 +3629,11 @@
       </c>
       <c r="M47" t="n">
         <v>8</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Thu May  4 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3462,6 +3697,11 @@
       <c r="M48" t="n">
         <v>8</v>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Wed May  3 09:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3521,6 +3761,11 @@
       </c>
       <c r="M49" t="n">
         <v>8</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Thu Apr 27 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3582,6 +3827,11 @@
       </c>
       <c r="M50" t="n">
         <v>9</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Thu Apr 20 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3646,6 +3896,11 @@
       <c r="M51" t="n">
         <v>8</v>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Wed Apr 19 18:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3707,6 +3962,11 @@
       <c r="M52" t="n">
         <v>9</v>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Thu Apr  6 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3765,6 +4025,11 @@
       </c>
       <c r="M53" t="n">
         <v>8</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Wed Apr  5 18:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3828,6 +4093,11 @@
       <c r="M54" t="n">
         <v>8</v>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Fri Mar 31 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3886,6 +4156,11 @@
       </c>
       <c r="M55" t="n">
         <v>7</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Thu Mar 30 18:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3947,6 +4222,11 @@
       </c>
       <c r="M56" t="n">
         <v>8</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tue Mar 28 15:00:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4011,6 +4291,11 @@
       <c r="M57" t="n">
         <v>8</v>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Mon Mar 27 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4072,6 +4357,11 @@
       <c r="M58" t="n">
         <v>8</v>
       </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Fri Mar 24 15:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4133,6 +4423,11 @@
       <c r="M59" t="n">
         <v>8</v>
       </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Wed Mar 22 12:00:00 2023</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4192,6 +4487,11 @@
       </c>
       <c r="M60" t="n">
         <v>8</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Tue Mar 21 13:48:00 2023</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4255,6 +4555,11 @@
       <c r="M61" t="n">
         <v>5</v>
       </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Wed Mar  1 18:08:05 2023</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4316,6 +4621,11 @@
       </c>
       <c r="M62" t="n">
         <v>8</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Fri Feb 24 12:01:49 2023</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4381,6 +4691,11 @@
       <c r="M63" t="n">
         <v>9</v>
       </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Wed Feb 22 12:02:31 2023</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4445,6 +4760,11 @@
       <c r="M64" t="n">
         <v>9</v>
       </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Tue Feb 21 12:00:33 2023</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4506,6 +4826,11 @@
       <c r="M65" t="n">
         <v>11</v>
       </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Thu Feb 16 12:01:04 2023</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4567,6 +4892,11 @@
       <c r="M66" t="n">
         <v>9</v>
       </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Wed Feb 15 12:01:44 2023</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4626,6 +4956,11 @@
       </c>
       <c r="M67" t="n">
         <v>10</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Tue Feb 14 15:00:12 2023</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4688,6 +5023,11 @@
       <c r="M68" t="n">
         <v>8</v>
       </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Fri Feb 10 09:00:56 2023</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4748,6 +5088,11 @@
       </c>
       <c r="M69" t="n">
         <v>9</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Thu Feb  9 09:00:15 2023</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4814,6 +5159,11 @@
       <c r="M70" t="n">
         <v>13</v>
       </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Wed Feb  8 09:01:40 2023</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -557,10 +561,8 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Thu Dec 14 15:52:39 2023</t>
-        </is>
+      <c r="N2" s="2" t="n">
+        <v>45274.6615625</v>
       </c>
     </row>
     <row r="3">
@@ -624,10 +626,8 @@
       <c r="M3" t="n">
         <v>7</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Wed Oct 25 13:13:09 2023</t>
-        </is>
+      <c r="N3" s="2" t="n">
+        <v>45224.55079861111</v>
       </c>
     </row>
     <row r="4">
@@ -693,10 +693,8 @@
       <c r="M4" t="n">
         <v>7</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Thu Oct 19 15:00:00 2023</t>
-        </is>
+      <c r="N4" s="2" t="n">
+        <v>45218.625</v>
       </c>
     </row>
     <row r="5">
@@ -767,10 +765,8 @@
       <c r="M5" t="n">
         <v>7</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Fri Oct  6 12:00:00 2023</t>
-        </is>
+      <c r="N5" s="2" t="n">
+        <v>45205.5</v>
       </c>
     </row>
     <row r="6">
@@ -837,10 +833,8 @@
       <c r="M6" t="n">
         <v>7</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Thu Oct  5 15:00:00 2023</t>
-        </is>
+      <c r="N6" s="2" t="n">
+        <v>45204.625</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +898,8 @@
       <c r="M7" t="n">
         <v>7</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Fri Sep 29 15:00:00 2023</t>
-        </is>
+      <c r="N7" s="2" t="n">
+        <v>45198.625</v>
       </c>
     </row>
     <row r="8">
@@ -974,10 +966,8 @@
       <c r="M8" t="n">
         <v>7</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Wed Sep 27 15:00:00 2023</t>
-        </is>
+      <c r="N8" s="2" t="n">
+        <v>45196.625</v>
       </c>
     </row>
     <row r="9">
@@ -1040,10 +1030,8 @@
       <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Fri Sep 22 16:03:59 2023</t>
-        </is>
+      <c r="N9" s="2" t="n">
+        <v>45191.66943287037</v>
       </c>
     </row>
     <row r="10">
@@ -1112,10 +1100,8 @@
       <c r="M10" t="n">
         <v>7</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Thu Sep 21 15:00:00 2023</t>
-        </is>
+      <c r="N10" s="2" t="n">
+        <v>45190.625</v>
       </c>
     </row>
     <row r="11">
@@ -1181,10 +1167,8 @@
       <c r="M11" t="n">
         <v>7</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Tue Sep 19 10:48:39 2023</t>
-        </is>
+      <c r="N11" s="2" t="n">
+        <v>45188.45045138889</v>
       </c>
     </row>
     <row r="12">
@@ -1250,10 +1234,8 @@
       <c r="M12" t="n">
         <v>10</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Mon Sep 18 15:54:39 2023</t>
-        </is>
+      <c r="N12" s="2" t="n">
+        <v>45187.66295138889</v>
       </c>
     </row>
     <row r="13">
@@ -1316,10 +1298,8 @@
       <c r="M13" t="n">
         <v>6</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Thu Sep  7 15:10:00 2023</t>
-        </is>
+      <c r="N13" s="2" t="n">
+        <v>45176.63194444445</v>
       </c>
     </row>
     <row r="14">
@@ -1382,10 +1362,8 @@
       <c r="M14" t="n">
         <v>7</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Mon Sep  4 09:00:00 2023</t>
-        </is>
+      <c r="N14" s="2" t="n">
+        <v>45173.375</v>
       </c>
     </row>
     <row r="15">
@@ -1448,10 +1426,8 @@
       <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Thu Aug 31 15:50:00 2023</t>
-        </is>
+      <c r="N15" s="2" t="n">
+        <v>45169.65972222222</v>
       </c>
     </row>
     <row r="16">
@@ -1516,10 +1492,8 @@
       <c r="M16" t="n">
         <v>9</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Mon Aug 28 12:36:37 2023</t>
-        </is>
+      <c r="N16" s="2" t="n">
+        <v>45166.52542824074</v>
       </c>
     </row>
     <row r="17">
@@ -1582,10 +1556,8 @@
       <c r="M17" t="n">
         <v>6</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Wed Aug 23 12:00:00 2023</t>
-        </is>
+      <c r="N17" s="2" t="n">
+        <v>45161.5</v>
       </c>
     </row>
     <row r="18">
@@ -1650,10 +1622,8 @@
       <c r="M18" t="n">
         <v>9</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Thu Aug 17 15:00:00 2023</t>
-        </is>
+      <c r="N18" s="2" t="n">
+        <v>45155.625</v>
       </c>
     </row>
     <row r="19">
@@ -1717,10 +1687,8 @@
       <c r="M19" t="n">
         <v>7</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Tue Aug 15 15:00:00 2023</t>
-        </is>
+      <c r="N19" s="2" t="n">
+        <v>45153.625</v>
       </c>
     </row>
     <row r="20">
@@ -1782,10 +1750,8 @@
       <c r="M20" t="n">
         <v>7</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Thu Aug 10 15:00:00 2023</t>
-        </is>
+      <c r="N20" s="2" t="n">
+        <v>45148.625</v>
       </c>
     </row>
     <row r="21">
@@ -1849,10 +1815,8 @@
       <c r="M21" t="n">
         <v>7</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Wed Aug  9 15:00:00 2023</t>
-        </is>
+      <c r="N21" s="2" t="n">
+        <v>45147.625</v>
       </c>
     </row>
     <row r="22">
@@ -1915,10 +1879,8 @@
       <c r="M22" t="n">
         <v>10</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Wed Aug  2 14:06:19 2023</t>
-        </is>
+      <c r="N22" s="2" t="n">
+        <v>45140.58771990741</v>
       </c>
     </row>
     <row r="23">
@@ -1992,10 +1954,8 @@
       <c r="M23" t="n">
         <v>12</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Tue Aug  1 09:00:00 2023</t>
-        </is>
+      <c r="N23" s="2" t="n">
+        <v>45139.375</v>
       </c>
     </row>
     <row r="24">
@@ -2058,10 +2018,8 @@
       <c r="M24" t="n">
         <v>11</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Thu Jul 27 12:00:00 2023</t>
-        </is>
+      <c r="N24" s="2" t="n">
+        <v>45134.5</v>
       </c>
     </row>
     <row r="25">
@@ -2127,10 +2085,8 @@
       <c r="M25" t="n">
         <v>8</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Tue Jul 25 12:00:00 2023</t>
-        </is>
+      <c r="N25" s="2" t="n">
+        <v>45132.5</v>
       </c>
     </row>
     <row r="26">
@@ -2202,10 +2158,8 @@
       <c r="M26" t="n">
         <v>10</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Fri Jul 21 12:00:00 2023</t>
-        </is>
+      <c r="N26" s="2" t="n">
+        <v>45128.5</v>
       </c>
     </row>
     <row r="27">
@@ -2270,10 +2224,8 @@
       <c r="M27" t="n">
         <v>9</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Thu Jul 20 12:30:00 2023</t>
-        </is>
+      <c r="N27" s="2" t="n">
+        <v>45127.52083333334</v>
       </c>
     </row>
     <row r="28">
@@ -2339,10 +2291,8 @@
       <c r="M28" t="n">
         <v>10</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Fri Jul 14 15:00:00 2023</t>
-        </is>
+      <c r="N28" s="2" t="n">
+        <v>45121.625</v>
       </c>
     </row>
     <row r="29">
@@ -2410,10 +2360,8 @@
       <c r="M29" t="n">
         <v>11</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Thu Jul 13 15:00:00 2023</t>
-        </is>
+      <c r="N29" s="2" t="n">
+        <v>45120.625</v>
       </c>
     </row>
     <row r="30">
@@ -2479,10 +2427,8 @@
       <c r="M30" t="n">
         <v>6</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Thu Jul 13 14:34:44 2023</t>
-        </is>
+      <c r="N30" s="2" t="n">
+        <v>45120.60745370371</v>
       </c>
     </row>
     <row r="31">
@@ -2542,10 +2488,8 @@
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Tue Jul  4 09:00:00 2023</t>
-        </is>
+      <c r="N31" s="2" t="n">
+        <v>45111.375</v>
       </c>
     </row>
     <row r="32">
@@ -2610,10 +2554,8 @@
       <c r="M32" t="n">
         <v>9</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Fri Jun 30 09:00:00 2023</t>
-        </is>
+      <c r="N32" s="2" t="n">
+        <v>45107.375</v>
       </c>
     </row>
     <row r="33">
@@ -2677,10 +2619,8 @@
       <c r="M33" t="n">
         <v>10</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Thu Jun 29 09:00:00 2023</t>
-        </is>
+      <c r="N33" s="2" t="n">
+        <v>45106.375</v>
       </c>
     </row>
     <row r="34">
@@ -2746,10 +2686,8 @@
       <c r="M34" t="n">
         <v>9</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Tue Jun 20 15:00:00 2023</t>
-        </is>
+      <c r="N34" s="2" t="n">
+        <v>45097.625</v>
       </c>
     </row>
     <row r="35">
@@ -2813,10 +2751,8 @@
       <c r="M35" t="n">
         <v>8</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Wed Jun 14 09:00:00 2023</t>
-        </is>
+      <c r="N35" s="2" t="n">
+        <v>45091.375</v>
       </c>
     </row>
     <row r="36">
@@ -2886,10 +2822,8 @@
       <c r="M36" t="n">
         <v>7</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Mon Jun 12 09:00:00 2023</t>
-        </is>
+      <c r="N36" s="2" t="n">
+        <v>45089.375</v>
       </c>
     </row>
     <row r="37">
@@ -2954,10 +2888,8 @@
       <c r="M37" t="n">
         <v>12</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Fri Jun  9 09:30:00 2023</t>
-        </is>
+      <c r="N37" s="2" t="n">
+        <v>45086.39583333334</v>
       </c>
     </row>
     <row r="38">
@@ -3020,10 +2952,8 @@
       <c r="M38" t="n">
         <v>8</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Tue Jun  6 09:00:00 2023</t>
-        </is>
+      <c r="N38" s="2" t="n">
+        <v>45083.375</v>
       </c>
     </row>
     <row r="39">
@@ -3090,10 +3020,8 @@
       <c r="M39" t="n">
         <v>8</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Thu Jun  1 15:00:00 2023</t>
-        </is>
+      <c r="N39" s="2" t="n">
+        <v>45078.625</v>
       </c>
     </row>
     <row r="40">
@@ -3153,10 +3081,8 @@
       <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Mon May 29 09:00:00 2023</t>
-        </is>
+      <c r="N40" s="2" t="n">
+        <v>45075.375</v>
       </c>
     </row>
     <row r="41">
@@ -3220,10 +3146,8 @@
       <c r="M41" t="n">
         <v>8</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Fri May 26 15:00:00 2023</t>
-        </is>
+      <c r="N41" s="2" t="n">
+        <v>45072.625</v>
       </c>
     </row>
     <row r="42">
@@ -3289,10 +3213,8 @@
       <c r="M42" t="n">
         <v>8</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Tue May 23 18:00:00 2023</t>
-        </is>
+      <c r="N42" s="2" t="n">
+        <v>45069.75</v>
       </c>
     </row>
     <row r="43">
@@ -3364,10 +3286,8 @@
       <c r="M43" t="n">
         <v>12</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Fri May 19 15:00:00 2023</t>
-        </is>
+      <c r="N43" s="2" t="n">
+        <v>45065.625</v>
       </c>
     </row>
     <row r="44">
@@ -3431,10 +3351,8 @@
       <c r="M44" t="n">
         <v>8</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Wed May 17 15:00:00 2023</t>
-        </is>
+      <c r="N44" s="2" t="n">
+        <v>45063.625</v>
       </c>
     </row>
     <row r="45">
@@ -3499,10 +3417,8 @@
       <c r="M45" t="n">
         <v>8</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Fri May 12 16:05:03 2023</t>
-        </is>
+      <c r="N45" s="2" t="n">
+        <v>45058.67017361111</v>
       </c>
     </row>
     <row r="46">
@@ -3566,10 +3482,8 @@
       <c r="M46" t="n">
         <v>8</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Tue May  9 15:30:00 2023</t>
-        </is>
+      <c r="N46" s="2" t="n">
+        <v>45055.64583333334</v>
       </c>
     </row>
     <row r="47">
@@ -3630,10 +3544,8 @@
       <c r="M47" t="n">
         <v>8</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Thu May  4 15:00:00 2023</t>
-        </is>
+      <c r="N47" s="2" t="n">
+        <v>45050.625</v>
       </c>
     </row>
     <row r="48">
@@ -3697,10 +3609,8 @@
       <c r="M48" t="n">
         <v>8</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Wed May  3 09:00:00 2023</t>
-        </is>
+      <c r="N48" s="2" t="n">
+        <v>45049.375</v>
       </c>
     </row>
     <row r="49">
@@ -3762,10 +3672,8 @@
       <c r="M49" t="n">
         <v>8</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Thu Apr 27 15:00:00 2023</t>
-        </is>
+      <c r="N49" s="2" t="n">
+        <v>45043.625</v>
       </c>
     </row>
     <row r="50">
@@ -3828,10 +3736,8 @@
       <c r="M50" t="n">
         <v>9</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Thu Apr 20 15:00:00 2023</t>
-        </is>
+      <c r="N50" s="2" t="n">
+        <v>45036.625</v>
       </c>
     </row>
     <row r="51">
@@ -3896,10 +3802,8 @@
       <c r="M51" t="n">
         <v>8</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Wed Apr 19 18:00:00 2023</t>
-        </is>
+      <c r="N51" s="2" t="n">
+        <v>45035.75</v>
       </c>
     </row>
     <row r="52">
@@ -3962,10 +3866,8 @@
       <c r="M52" t="n">
         <v>9</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Thu Apr  6 15:00:00 2023</t>
-        </is>
+      <c r="N52" s="2" t="n">
+        <v>45022.625</v>
       </c>
     </row>
     <row r="53">
@@ -4026,10 +3928,8 @@
       <c r="M53" t="n">
         <v>8</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Wed Apr  5 18:00:00 2023</t>
-        </is>
+      <c r="N53" s="2" t="n">
+        <v>45021.75</v>
       </c>
     </row>
     <row r="54">
@@ -4093,10 +3993,8 @@
       <c r="M54" t="n">
         <v>8</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Fri Mar 31 15:00:00 2023</t>
-        </is>
+      <c r="N54" s="2" t="n">
+        <v>45016.625</v>
       </c>
     </row>
     <row r="55">
@@ -4157,10 +4055,8 @@
       <c r="M55" t="n">
         <v>7</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Thu Mar 30 18:00:00 2023</t>
-        </is>
+      <c r="N55" s="2" t="n">
+        <v>45015.75</v>
       </c>
     </row>
     <row r="56">
@@ -4223,10 +4119,8 @@
       <c r="M56" t="n">
         <v>8</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Tue Mar 28 15:00:00 2023</t>
-        </is>
+      <c r="N56" s="2" t="n">
+        <v>45013.625</v>
       </c>
     </row>
     <row r="57">
@@ -4291,10 +4185,8 @@
       <c r="M57" t="n">
         <v>8</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Mon Mar 27 15:00:00 2023</t>
-        </is>
+      <c r="N57" s="2" t="n">
+        <v>45012.625</v>
       </c>
     </row>
     <row r="58">
@@ -4357,10 +4249,8 @@
       <c r="M58" t="n">
         <v>8</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Fri Mar 24 15:00:00 2023</t>
-        </is>
+      <c r="N58" s="2" t="n">
+        <v>45009.625</v>
       </c>
     </row>
     <row r="59">
@@ -4423,10 +4313,8 @@
       <c r="M59" t="n">
         <v>8</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Wed Mar 22 12:00:00 2023</t>
-        </is>
+      <c r="N59" s="2" t="n">
+        <v>45007.5</v>
       </c>
     </row>
     <row r="60">
@@ -4488,10 +4376,8 @@
       <c r="M60" t="n">
         <v>8</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Tue Mar 21 13:48:00 2023</t>
-        </is>
+      <c r="N60" s="2" t="n">
+        <v>45006.575</v>
       </c>
     </row>
     <row r="61">
@@ -4555,10 +4441,8 @@
       <c r="M61" t="n">
         <v>5</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Wed Mar  1 18:08:05 2023</t>
-        </is>
+      <c r="N61" s="2" t="n">
+        <v>44986.75561342593</v>
       </c>
     </row>
     <row r="62">
@@ -4622,10 +4506,8 @@
       <c r="M62" t="n">
         <v>8</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Fri Feb 24 12:01:49 2023</t>
-        </is>
+      <c r="N62" s="2" t="n">
+        <v>44981.50126157407</v>
       </c>
     </row>
     <row r="63">
@@ -4691,10 +4573,8 @@
       <c r="M63" t="n">
         <v>9</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Wed Feb 22 12:02:31 2023</t>
-        </is>
+      <c r="N63" s="2" t="n">
+        <v>44979.50174768519</v>
       </c>
     </row>
     <row r="64">
@@ -4760,10 +4640,8 @@
       <c r="M64" t="n">
         <v>9</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Tue Feb 21 12:00:33 2023</t>
-        </is>
+      <c r="N64" s="2" t="n">
+        <v>44978.50038194445</v>
       </c>
     </row>
     <row r="65">
@@ -4826,10 +4704,8 @@
       <c r="M65" t="n">
         <v>11</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Thu Feb 16 12:01:04 2023</t>
-        </is>
+      <c r="N65" s="2" t="n">
+        <v>44973.50074074074</v>
       </c>
     </row>
     <row r="66">
@@ -4892,10 +4768,8 @@
       <c r="M66" t="n">
         <v>9</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Wed Feb 15 12:01:44 2023</t>
-        </is>
+      <c r="N66" s="2" t="n">
+        <v>44972.5012037037</v>
       </c>
     </row>
     <row r="67">
@@ -4957,10 +4831,8 @@
       <c r="M67" t="n">
         <v>10</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Tue Feb 14 15:00:12 2023</t>
-        </is>
+      <c r="N67" s="2" t="n">
+        <v>44971.62513888889</v>
       </c>
     </row>
     <row r="68">
@@ -5023,10 +4895,8 @@
       <c r="M68" t="n">
         <v>8</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Fri Feb 10 09:00:56 2023</t>
-        </is>
+      <c r="N68" s="2" t="n">
+        <v>44967.37564814815</v>
       </c>
     </row>
     <row r="69">
@@ -5089,10 +4959,8 @@
       <c r="M69" t="n">
         <v>9</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Thu Feb  9 09:00:15 2023</t>
-        </is>
+      <c r="N69" s="2" t="n">
+        <v>44966.37517361111</v>
       </c>
     </row>
     <row r="70">
@@ -5159,10 +5027,8 @@
       <c r="M70" t="n">
         <v>13</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Wed Feb  8 09:01:40 2023</t>
-        </is>
+      <c r="N70" s="2" t="n">
+        <v>44965.37615740741</v>
       </c>
     </row>
   </sheetData>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,26 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -563,6 +583,18 @@
       </c>
       <c r="N2" s="2" t="n">
         <v>45274.6615625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>45274</v>
       </c>
     </row>
     <row r="3">
@@ -628,6 +660,18 @@
       </c>
       <c r="N3" s="2" t="n">
         <v>45224.55079861111</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>45224</v>
       </c>
     </row>
     <row r="4">
@@ -695,6 +739,18 @@
       </c>
       <c r="N4" s="2" t="n">
         <v>45218.625</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>45218</v>
       </c>
     </row>
     <row r="5">
@@ -768,6 +824,18 @@
       <c r="N5" s="2" t="n">
         <v>45205.5</v>
       </c>
+      <c r="O5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>45205</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -836,6 +904,18 @@
       <c r="N6" s="2" t="n">
         <v>45204.625</v>
       </c>
+      <c r="O6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>45204</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -900,6 +980,18 @@
       </c>
       <c r="N7" s="2" t="n">
         <v>45198.625</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>29</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>45198</v>
       </c>
     </row>
     <row r="8">
@@ -969,6 +1061,18 @@
       <c r="N8" s="2" t="n">
         <v>45196.625</v>
       </c>
+      <c r="O8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>27</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>45196</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1032,6 +1136,18 @@
       </c>
       <c r="N9" s="2" t="n">
         <v>45191.66943287037</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>22</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>45191</v>
       </c>
     </row>
     <row r="10">
@@ -1103,6 +1219,18 @@
       <c r="N10" s="2" t="n">
         <v>45190.625</v>
       </c>
+      <c r="O10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>45190</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1170,6 +1298,18 @@
       <c r="N11" s="2" t="n">
         <v>45188.45045138889</v>
       </c>
+      <c r="O11" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>45188</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1237,6 +1377,18 @@
       <c r="N12" s="2" t="n">
         <v>45187.66295138889</v>
       </c>
+      <c r="O12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>45187</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1301,6 +1453,18 @@
       <c r="N13" s="2" t="n">
         <v>45176.63194444445</v>
       </c>
+      <c r="O13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>45176</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1365,6 +1529,18 @@
       <c r="N14" s="2" t="n">
         <v>45173.375</v>
       </c>
+      <c r="O14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>45173</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1428,6 +1604,18 @@
       </c>
       <c r="N15" s="2" t="n">
         <v>45169.65972222222</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>31</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>45169</v>
       </c>
     </row>
     <row r="16">
@@ -1495,6 +1683,18 @@
       <c r="N16" s="2" t="n">
         <v>45166.52542824074</v>
       </c>
+      <c r="O16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>28</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>45166</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1558,6 +1758,18 @@
       </c>
       <c r="N17" s="2" t="n">
         <v>45161.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>45161</v>
       </c>
     </row>
     <row r="18">
@@ -1625,6 +1837,18 @@
       <c r="N18" s="2" t="n">
         <v>45155.625</v>
       </c>
+      <c r="O18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>45155</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1690,6 +1914,18 @@
       <c r="N19" s="2" t="n">
         <v>45153.625</v>
       </c>
+      <c r="O19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>45153</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1752,6 +1988,18 @@
       </c>
       <c r="N20" s="2" t="n">
         <v>45148.625</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <v>45148</v>
       </c>
     </row>
     <row r="21">
@@ -1818,6 +2066,18 @@
       <c r="N21" s="2" t="n">
         <v>45147.625</v>
       </c>
+      <c r="O21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>45147</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1881,6 +2141,18 @@
       </c>
       <c r="N22" s="2" t="n">
         <v>45140.58771990741</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>45140</v>
       </c>
     </row>
     <row r="23">
@@ -1957,6 +2229,18 @@
       <c r="N23" s="2" t="n">
         <v>45139.375</v>
       </c>
+      <c r="O23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>45139</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2020,6 +2304,18 @@
       </c>
       <c r="N24" s="2" t="n">
         <v>45134.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>27</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>45134</v>
       </c>
     </row>
     <row r="25">
@@ -2087,6 +2383,18 @@
       </c>
       <c r="N25" s="2" t="n">
         <v>45132.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>25</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>45132</v>
       </c>
     </row>
     <row r="26">
@@ -2161,6 +2469,18 @@
       <c r="N26" s="2" t="n">
         <v>45128.5</v>
       </c>
+      <c r="O26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>21</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>45128</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2226,6 +2546,18 @@
       </c>
       <c r="N27" s="2" t="n">
         <v>45127.52083333334</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>45127</v>
       </c>
     </row>
     <row r="28">
@@ -2293,6 +2625,18 @@
       </c>
       <c r="N28" s="2" t="n">
         <v>45121.625</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>14</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>45121</v>
       </c>
     </row>
     <row r="29">
@@ -2363,6 +2707,18 @@
       <c r="N29" s="2" t="n">
         <v>45120.625</v>
       </c>
+      <c r="O29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>13</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>45120</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2430,6 +2786,18 @@
       <c r="N30" s="2" t="n">
         <v>45120.60745370371</v>
       </c>
+      <c r="O30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>13</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>45120</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2490,6 +2858,18 @@
       </c>
       <c r="N31" s="2" t="n">
         <v>45111.375</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>45111</v>
       </c>
     </row>
     <row r="32">
@@ -2557,6 +2937,18 @@
       <c r="N32" s="2" t="n">
         <v>45107.375</v>
       </c>
+      <c r="O32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>45107</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2621,6 +3013,18 @@
       </c>
       <c r="N33" s="2" t="n">
         <v>45106.375</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>45106</v>
       </c>
     </row>
     <row r="34">
@@ -2689,6 +3093,18 @@
       <c r="N34" s="2" t="n">
         <v>45097.625</v>
       </c>
+      <c r="O34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>20</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>45097</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2753,6 +3169,18 @@
       </c>
       <c r="N35" s="2" t="n">
         <v>45091.375</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P35" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>14</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>45091</v>
       </c>
     </row>
     <row r="36">
@@ -2825,6 +3253,18 @@
       <c r="N36" s="2" t="n">
         <v>45089.375</v>
       </c>
+      <c r="O36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>12</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>45089</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2891,6 +3331,18 @@
       <c r="N37" s="2" t="n">
         <v>45086.39583333334</v>
       </c>
+      <c r="O37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>9</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>45086</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2954,6 +3406,18 @@
       </c>
       <c r="N38" s="2" t="n">
         <v>45083.375</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>45083</v>
       </c>
     </row>
     <row r="39">
@@ -3023,6 +3487,18 @@
       <c r="N39" s="2" t="n">
         <v>45078.625</v>
       </c>
+      <c r="O39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>45078</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3083,6 +3559,18 @@
       </c>
       <c r="N40" s="2" t="n">
         <v>45075.375</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>29</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>45075</v>
       </c>
     </row>
     <row r="41">
@@ -3148,6 +3636,18 @@
       </c>
       <c r="N41" s="2" t="n">
         <v>45072.625</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>26</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>45072</v>
       </c>
     </row>
     <row r="42">
@@ -3215,6 +3715,18 @@
       </c>
       <c r="N42" s="2" t="n">
         <v>45069.75</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>23</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>45069</v>
       </c>
     </row>
     <row r="43">
@@ -3289,6 +3801,18 @@
       <c r="N43" s="2" t="n">
         <v>45065.625</v>
       </c>
+      <c r="O43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>19</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>45065</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3353,6 +3877,18 @@
       </c>
       <c r="N44" s="2" t="n">
         <v>45063.625</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>17</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>45063</v>
       </c>
     </row>
     <row r="45">
@@ -3420,6 +3956,18 @@
       <c r="N45" s="2" t="n">
         <v>45058.67017361111</v>
       </c>
+      <c r="O45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>12</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>45058</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3485,6 +4033,18 @@
       <c r="N46" s="2" t="n">
         <v>45055.64583333334</v>
       </c>
+      <c r="O46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>9</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>45055</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3546,6 +4106,18 @@
       </c>
       <c r="N47" s="2" t="n">
         <v>45050.625</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>45050</v>
       </c>
     </row>
     <row r="48">
@@ -3612,6 +4184,18 @@
       <c r="N48" s="2" t="n">
         <v>45049.375</v>
       </c>
+      <c r="O48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>45049</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3674,6 +4258,18 @@
       </c>
       <c r="N49" s="2" t="n">
         <v>45043.625</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>27</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>45043</v>
       </c>
     </row>
     <row r="50">
@@ -3738,6 +4334,18 @@
       </c>
       <c r="N50" s="2" t="n">
         <v>45036.625</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>20</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>45036</v>
       </c>
     </row>
     <row r="51">
@@ -3805,6 +4413,18 @@
       <c r="N51" s="2" t="n">
         <v>45035.75</v>
       </c>
+      <c r="O51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>19</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>45035</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3869,6 +4489,18 @@
       <c r="N52" s="2" t="n">
         <v>45022.625</v>
       </c>
+      <c r="O52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>45022</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3930,6 +4562,18 @@
       </c>
       <c r="N53" s="2" t="n">
         <v>45021.75</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>45021</v>
       </c>
     </row>
     <row r="54">
@@ -3996,6 +4640,18 @@
       <c r="N54" s="2" t="n">
         <v>45016.625</v>
       </c>
+      <c r="O54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>31</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>45016</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4057,6 +4713,18 @@
       </c>
       <c r="N55" s="2" t="n">
         <v>45015.75</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>30</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>45015</v>
       </c>
     </row>
     <row r="56">
@@ -4121,6 +4789,18 @@
       </c>
       <c r="N56" s="2" t="n">
         <v>45013.625</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>28</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>45013</v>
       </c>
     </row>
     <row r="57">
@@ -4188,6 +4868,18 @@
       <c r="N57" s="2" t="n">
         <v>45012.625</v>
       </c>
+      <c r="O57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>27</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>45012</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4252,6 +4944,18 @@
       <c r="N58" s="2" t="n">
         <v>45009.625</v>
       </c>
+      <c r="O58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>24</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>45009</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4316,6 +5020,18 @@
       <c r="N59" s="2" t="n">
         <v>45007.5</v>
       </c>
+      <c r="O59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>22</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>45007</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4378,6 +5094,18 @@
       </c>
       <c r="N60" s="2" t="n">
         <v>45006.575</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>21</v>
+      </c>
+      <c r="R60" s="2" t="n">
+        <v>45006</v>
       </c>
     </row>
     <row r="61">
@@ -4444,6 +5172,18 @@
       <c r="N61" s="2" t="n">
         <v>44986.75561342593</v>
       </c>
+      <c r="O61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" s="2" t="n">
+        <v>44986</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4508,6 +5248,18 @@
       </c>
       <c r="N62" s="2" t="n">
         <v>44981.50126157407</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>24</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>44981</v>
       </c>
     </row>
     <row r="63">
@@ -4576,6 +5328,18 @@
       <c r="N63" s="2" t="n">
         <v>44979.50174768519</v>
       </c>
+      <c r="O63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>22</v>
+      </c>
+      <c r="R63" s="2" t="n">
+        <v>44979</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4643,6 +5407,18 @@
       <c r="N64" s="2" t="n">
         <v>44978.50038194445</v>
       </c>
+      <c r="O64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>21</v>
+      </c>
+      <c r="R64" s="2" t="n">
+        <v>44978</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4707,6 +5483,18 @@
       <c r="N65" s="2" t="n">
         <v>44973.50074074074</v>
       </c>
+      <c r="O65" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>16</v>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v>44973</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4771,6 +5559,18 @@
       <c r="N66" s="2" t="n">
         <v>44972.5012037037</v>
       </c>
+      <c r="O66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>15</v>
+      </c>
+      <c r="R66" s="2" t="n">
+        <v>44972</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4833,6 +5633,18 @@
       </c>
       <c r="N67" s="2" t="n">
         <v>44971.62513888889</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>14</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>44971</v>
       </c>
     </row>
     <row r="68">
@@ -4898,6 +5710,18 @@
       <c r="N68" s="2" t="n">
         <v>44967.37564814815</v>
       </c>
+      <c r="O68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>10</v>
+      </c>
+      <c r="R68" s="2" t="n">
+        <v>44967</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4961,6 +5785,18 @@
       </c>
       <c r="N69" s="2" t="n">
         <v>44966.37517361111</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>9</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>44966</v>
       </c>
     </row>
     <row r="70">
@@ -5030,6 +5866,18 @@
       <c r="N70" s="2" t="n">
         <v>44965.37615740741</v>
       </c>
+      <c r="O70" t="n">
+        <v>2023</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+      <c r="R70" s="2" t="n">
+        <v>44965</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -603,7 +603,9 @@
       <c r="L2" t="n">
         <v>20</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -693,7 +695,9 @@
       <c r="L3" t="n">
         <v>15</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
@@ -785,7 +789,9 @@
       <c r="L4" t="n">
         <v>33</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
@@ -882,7 +888,9 @@
       <c r="L5" t="n">
         <v>23</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
@@ -975,7 +983,9 @@
       <c r="L6" t="n">
         <v>34</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
@@ -1065,7 +1075,9 @@
       <c r="L7" t="n">
         <v>27</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" t="n">
         <v>7</v>
       </c>
@@ -1158,7 +1170,9 @@
       <c r="L8" t="n">
         <v>48</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
@@ -1247,7 +1261,9 @@
       <c r="L9" t="n">
         <v>17</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
@@ -1342,7 +1358,9 @@
       <c r="L10" t="n">
         <v>34</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="n">
         <v>7</v>
       </c>
@@ -1434,7 +1452,9 @@
       <c r="L11" t="n">
         <v>34</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="n">
         <v>7</v>
       </c>
@@ -1526,7 +1546,9 @@
       <c r="L12" t="n">
         <v>29</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
@@ -1615,7 +1637,9 @@
       <c r="L13" t="n">
         <v>20</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="n">
         <v>6</v>
       </c>
@@ -1704,7 +1728,9 @@
       <c r="L14" t="n">
         <v>16</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="n">
         <v>7</v>
       </c>
@@ -1793,7 +1819,9 @@
       <c r="L15" t="n">
         <v>26</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
       <c r="N15" t="n">
         <v>6</v>
       </c>
@@ -1884,7 +1912,9 @@
       <c r="L16" t="n">
         <v>22</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
@@ -1973,7 +2003,9 @@
       <c r="L17" t="n">
         <v>15</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="n">
         <v>6</v>
       </c>
@@ -2064,7 +2096,9 @@
       <c r="L18" t="n">
         <v>35</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
@@ -2154,7 +2188,9 @@
       <c r="L19" t="n">
         <v>32</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" t="n">
         <v>7</v>
       </c>
@@ -2242,7 +2278,9 @@
       <c r="L20" t="n">
         <v>17</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="n">
         <v>7</v>
       </c>
@@ -2332,7 +2370,9 @@
       <c r="L21" t="n">
         <v>16</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" t="n">
         <v>7</v>
       </c>
@@ -2421,7 +2461,9 @@
       <c r="L22" t="n">
         <v>25</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
       <c r="N22" t="n">
         <v>10</v>
       </c>
@@ -2521,7 +2563,9 @@
       <c r="L23" t="n">
         <v>30</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
       <c r="N23" t="n">
         <v>12</v>
       </c>
@@ -2610,7 +2654,9 @@
       <c r="L24" t="n">
         <v>22</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="n">
         <v>11</v>
       </c>
@@ -2702,7 +2748,9 @@
       <c r="L25" t="n">
         <v>22</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" t="n">
         <v>8</v>
       </c>
@@ -2800,7 +2848,9 @@
       <c r="L26" t="n">
         <v>31</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
       <c r="N26" t="n">
         <v>10</v>
       </c>
@@ -2891,7 +2941,9 @@
       <c r="L27" t="n">
         <v>26</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
@@ -2983,7 +3035,9 @@
       <c r="L28" t="n">
         <v>29</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" t="n">
         <v>10</v>
       </c>
@@ -3077,7 +3131,9 @@
       <c r="L29" t="n">
         <v>30</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
       <c r="N29" t="n">
         <v>11</v>
       </c>
@@ -3169,7 +3225,9 @@
       <c r="L30" t="n">
         <v>40</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
       <c r="N30" t="n">
         <v>6</v>
       </c>
@@ -3255,7 +3313,9 @@
       <c r="L31" t="n">
         <v>7</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
       <c r="N31" t="n">
         <v>5</v>
       </c>
@@ -3346,7 +3406,9 @@
       <c r="L32" t="n">
         <v>32</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
       <c r="N32" t="n">
         <v>9</v>
       </c>
@@ -3436,7 +3498,9 @@
       <c r="L33" t="n">
         <v>27</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
       <c r="N33" t="n">
         <v>10</v>
       </c>
@@ -3528,7 +3592,9 @@
       <c r="L34" t="n">
         <v>33</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
       <c r="N34" t="n">
         <v>9</v>
       </c>
@@ -3618,7 +3684,9 @@
       <c r="L35" t="n">
         <v>22</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
       <c r="N35" t="n">
         <v>8</v>
       </c>
@@ -3714,7 +3782,9 @@
       <c r="L36" t="n">
         <v>43</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
       <c r="N36" t="n">
         <v>7</v>
       </c>
@@ -3805,7 +3875,9 @@
       <c r="L37" t="n">
         <v>26</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
       <c r="N37" t="n">
         <v>12</v>
       </c>
@@ -3894,7 +3966,9 @@
       <c r="L38" t="n">
         <v>17</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
       <c r="N38" t="n">
         <v>8</v>
       </c>
@@ -3987,7 +4061,9 @@
       <c r="L39" t="n">
         <v>34</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
       <c r="N39" t="n">
         <v>8</v>
       </c>
@@ -4073,7 +4149,9 @@
       <c r="L40" t="n">
         <v>4</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" t="n">
         <v>3</v>
       </c>
@@ -4163,7 +4241,9 @@
       <c r="L41" t="n">
         <v>24</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
       <c r="N41" t="n">
         <v>8</v>
       </c>
@@ -4255,7 +4335,9 @@
       <c r="L42" t="n">
         <v>19</v>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
       <c r="N42" t="n">
         <v>8</v>
       </c>
@@ -4353,7 +4435,9 @@
       <c r="L43" t="n">
         <v>47</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" t="n">
         <v>12</v>
       </c>
@@ -4443,7 +4527,9 @@
       <c r="L44" t="n">
         <v>16</v>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" t="n">
         <v>8</v>
       </c>
@@ -4534,7 +4620,9 @@
       <c r="L45" t="n">
         <v>22</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
       <c r="N45" t="n">
         <v>8</v>
       </c>
@@ -4624,7 +4712,9 @@
       <c r="L46" t="n">
         <v>17</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
       <c r="N46" t="n">
         <v>8</v>
       </c>
@@ -4711,7 +4801,9 @@
       <c r="L47" t="n">
         <v>12</v>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" t="n">
         <v>8</v>
       </c>
@@ -4801,7 +4893,9 @@
       <c r="L48" t="n">
         <v>23</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" t="n">
         <v>8</v>
       </c>
@@ -4889,7 +4983,9 @@
       <c r="L49" t="n">
         <v>16</v>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
       <c r="N49" t="n">
         <v>8</v>
       </c>
@@ -4978,7 +5074,9 @@
       <c r="L50" t="n">
         <v>13</v>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
       <c r="N50" t="n">
         <v>9</v>
       </c>
@@ -5069,7 +5167,9 @@
       <c r="L51" t="n">
         <v>28</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="n">
         <v>8</v>
       </c>
@@ -5158,7 +5258,9 @@
       <c r="L52" t="n">
         <v>17</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
       <c r="N52" t="n">
         <v>9</v>
       </c>
@@ -5245,7 +5347,9 @@
       <c r="L53" t="n">
         <v>30</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
       <c r="N53" t="n">
         <v>8</v>
       </c>
@@ -5335,7 +5439,9 @@
       <c r="L54" t="n">
         <v>20</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" t="n">
         <v>8</v>
       </c>
@@ -5422,7 +5528,9 @@
       <c r="L55" t="n">
         <v>17</v>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
       <c r="N55" t="n">
         <v>7</v>
       </c>
@@ -5511,7 +5619,9 @@
       <c r="L56" t="n">
         <v>15</v>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" t="n">
         <v>8</v>
       </c>
@@ -5602,7 +5712,9 @@
       <c r="L57" t="n">
         <v>17</v>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
@@ -5691,7 +5803,9 @@
       <c r="L58" t="n">
         <v>17</v>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
       <c r="N58" t="n">
         <v>8</v>
       </c>
@@ -5780,7 +5894,9 @@
       <c r="L59" t="n">
         <v>24</v>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" t="n">
         <v>8</v>
       </c>
@@ -5868,7 +5984,9 @@
       <c r="L60" t="n">
         <v>16</v>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
       <c r="N60" t="n">
         <v>8</v>
       </c>
@@ -5958,7 +6076,9 @@
       <c r="L61" t="n">
         <v>20</v>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
       <c r="N61" t="n">
         <v>5</v>
       </c>
@@ -6048,7 +6168,9 @@
       <c r="L62" t="n">
         <v>18</v>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
       <c r="N62" t="n">
         <v>8</v>
       </c>
@@ -6140,7 +6262,9 @@
       <c r="L63" t="n">
         <v>27</v>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
       <c r="N63" t="n">
         <v>9</v>
       </c>
@@ -6232,7 +6356,9 @@
       <c r="L64" t="n">
         <v>36</v>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
       <c r="N64" t="n">
         <v>9</v>
       </c>
@@ -6321,7 +6447,9 @@
       <c r="L65" t="n">
         <v>16</v>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
       <c r="N65" t="n">
         <v>11</v>
       </c>
@@ -6410,7 +6538,9 @@
       <c r="L66" t="n">
         <v>24</v>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
       <c r="N66" t="n">
         <v>9</v>
       </c>
@@ -6498,7 +6628,9 @@
       <c r="L67" t="n">
         <v>21</v>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
       <c r="N67" t="n">
         <v>10</v>
       </c>
@@ -6587,7 +6719,9 @@
       <c r="L68" t="n">
         <v>19</v>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
       <c r="N68" t="n">
         <v>8</v>
       </c>
@@ -6676,7 +6810,9 @@
       <c r="L69" t="n">
         <v>16</v>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
       <c r="N69" t="n">
         <v>9</v>
       </c>
@@ -6769,7 +6905,9 @@
       <c r="L70" t="n">
         <v>34</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
       <c r="N70" t="n">
         <v>13</v>
       </c>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W70"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,11 @@
           <t>Verb_Count</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Entities_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -635,6 +640,9 @@
       </c>
       <c r="W2" t="n">
         <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -727,6 +735,9 @@
       </c>
       <c r="W3" t="n">
         <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -821,6 +832,9 @@
       </c>
       <c r="W4" t="n">
         <v>29</v>
+      </c>
+      <c r="X4" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -921,6 +935,9 @@
       <c r="W5" t="n">
         <v>15</v>
       </c>
+      <c r="X5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1016,6 +1033,9 @@
       <c r="W6" t="n">
         <v>25</v>
       </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1107,6 +1127,9 @@
       </c>
       <c r="W7" t="n">
         <v>27</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1203,6 +1226,9 @@
       <c r="W8" t="n">
         <v>34</v>
       </c>
+      <c r="X8" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1293,6 +1319,9 @@
       </c>
       <c r="W9" t="n">
         <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1391,6 +1420,9 @@
       <c r="W10" t="n">
         <v>34</v>
       </c>
+      <c r="X10" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1485,6 +1517,9 @@
       <c r="W11" t="n">
         <v>17</v>
       </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1579,6 +1614,9 @@
       <c r="W12" t="n">
         <v>11</v>
       </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1670,6 +1708,9 @@
       <c r="W13" t="n">
         <v>12</v>
       </c>
+      <c r="X13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1761,6 +1802,9 @@
       <c r="W14" t="n">
         <v>11</v>
       </c>
+      <c r="X14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1851,6 +1895,9 @@
       </c>
       <c r="W15" t="n">
         <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1945,6 +1992,9 @@
       <c r="W16" t="n">
         <v>14</v>
       </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2035,6 +2085,9 @@
       </c>
       <c r="W17" t="n">
         <v>14</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2129,6 +2182,9 @@
       <c r="W18" t="n">
         <v>24</v>
       </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2221,6 +2277,9 @@
       <c r="W19" t="n">
         <v>11</v>
       </c>
+      <c r="X19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2310,6 +2369,9 @@
       </c>
       <c r="W20" t="n">
         <v>6</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2403,6 +2465,9 @@
       <c r="W21" t="n">
         <v>10</v>
       </c>
+      <c r="X21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2493,6 +2558,9 @@
       </c>
       <c r="W22" t="n">
         <v>15</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2596,6 +2664,9 @@
       <c r="W23" t="n">
         <v>14</v>
       </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2686,6 +2757,9 @@
       </c>
       <c r="W24" t="n">
         <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2780,6 +2854,9 @@
       </c>
       <c r="W25" t="n">
         <v>17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2881,6 +2958,9 @@
       <c r="W26" t="n">
         <v>13</v>
       </c>
+      <c r="X26" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2973,6 +3053,9 @@
       </c>
       <c r="W27" t="n">
         <v>20</v>
+      </c>
+      <c r="X27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -3067,6 +3150,9 @@
       </c>
       <c r="W28" t="n">
         <v>25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -3164,6 +3250,9 @@
       <c r="W29" t="n">
         <v>13</v>
       </c>
+      <c r="X29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3258,6 +3347,9 @@
       <c r="W30" t="n">
         <v>26</v>
       </c>
+      <c r="X30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3345,6 +3437,9 @@
       </c>
       <c r="W31" t="n">
         <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -3439,6 +3534,9 @@
       <c r="W32" t="n">
         <v>20</v>
       </c>
+      <c r="X32" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3530,6 +3628,9 @@
       </c>
       <c r="W33" t="n">
         <v>14</v>
+      </c>
+      <c r="X33" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -3625,6 +3726,9 @@
       <c r="W34" t="n">
         <v>21</v>
       </c>
+      <c r="X34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3716,6 +3820,9 @@
       </c>
       <c r="W35" t="n">
         <v>19</v>
+      </c>
+      <c r="X35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3815,6 +3922,9 @@
       <c r="W36" t="n">
         <v>51</v>
       </c>
+      <c r="X36" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3908,6 +4018,9 @@
       <c r="W37" t="n">
         <v>9</v>
       </c>
+      <c r="X37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3998,6 +4111,9 @@
       </c>
       <c r="W38" t="n">
         <v>17</v>
+      </c>
+      <c r="X38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -4094,6 +4210,9 @@
       <c r="W39" t="n">
         <v>22</v>
       </c>
+      <c r="X39" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4181,6 +4300,9 @@
       </c>
       <c r="W40" t="n">
         <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -4273,6 +4395,9 @@
       </c>
       <c r="W41" t="n">
         <v>18</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -4367,6 +4492,9 @@
       </c>
       <c r="W42" t="n">
         <v>18</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -4468,6 +4596,9 @@
       <c r="W43" t="n">
         <v>17</v>
       </c>
+      <c r="X43" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4559,6 +4690,9 @@
       </c>
       <c r="W44" t="n">
         <v>10</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -4653,6 +4787,9 @@
       <c r="W45" t="n">
         <v>10</v>
       </c>
+      <c r="X45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4745,6 +4882,9 @@
       <c r="W46" t="n">
         <v>13</v>
       </c>
+      <c r="X46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4833,6 +4973,9 @@
       </c>
       <c r="W47" t="n">
         <v>6</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4926,6 +5069,9 @@
       <c r="W48" t="n">
         <v>12</v>
       </c>
+      <c r="X48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5015,6 +5161,9 @@
       </c>
       <c r="W49" t="n">
         <v>9</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -5106,6 +5255,9 @@
       </c>
       <c r="W50" t="n">
         <v>11</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -5200,6 +5352,9 @@
       <c r="W51" t="n">
         <v>13</v>
       </c>
+      <c r="X51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5291,6 +5446,9 @@
       <c r="W52" t="n">
         <v>12</v>
       </c>
+      <c r="X52" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5379,6 +5537,9 @@
       </c>
       <c r="W53" t="n">
         <v>8</v>
+      </c>
+      <c r="X53" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -5472,6 +5633,9 @@
       <c r="W54" t="n">
         <v>14</v>
       </c>
+      <c r="X54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5560,6 +5724,9 @@
       </c>
       <c r="W55" t="n">
         <v>7</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -5651,6 +5818,9 @@
       </c>
       <c r="W56" t="n">
         <v>8</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -5745,6 +5915,9 @@
       <c r="W57" t="n">
         <v>10</v>
       </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5836,6 +6009,9 @@
       <c r="W58" t="n">
         <v>8</v>
       </c>
+      <c r="X58" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5927,6 +6103,9 @@
       <c r="W59" t="n">
         <v>12</v>
       </c>
+      <c r="X59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6016,6 +6195,9 @@
       </c>
       <c r="W60" t="n">
         <v>7</v>
+      </c>
+      <c r="X60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -6109,6 +6291,9 @@
       <c r="W61" t="n">
         <v>9</v>
       </c>
+      <c r="X61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6200,6 +6385,9 @@
       </c>
       <c r="W62" t="n">
         <v>15</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -6295,6 +6483,9 @@
       <c r="W63" t="n">
         <v>20</v>
       </c>
+      <c r="X63" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6389,6 +6580,9 @@
       <c r="W64" t="n">
         <v>23</v>
       </c>
+      <c r="X64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6480,6 +6674,9 @@
       <c r="W65" t="n">
         <v>6</v>
       </c>
+      <c r="X65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6571,6 +6768,9 @@
       <c r="W66" t="n">
         <v>10</v>
       </c>
+      <c r="X66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6660,6 +6860,9 @@
       </c>
       <c r="W67" t="n">
         <v>13</v>
+      </c>
+      <c r="X67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -6752,6 +6955,9 @@
       <c r="W68" t="n">
         <v>10</v>
       </c>
+      <c r="X68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6842,6 +7048,9 @@
       </c>
       <c r="W69" t="n">
         <v>12</v>
+      </c>
+      <c r="X69" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -6938,6 +7147,9 @@
       <c r="W70" t="n">
         <v>27</v>
       </c>
+      <c r="X70" t="n">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
+++ b/Data Cleaning/Cleaned Output Files/CleanedPosts.xlsx
@@ -606,10 +606,10 @@
         <v>135</v>
       </c>
       <c r="L2" t="n">
-        <v>20</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>0.01481481481481482</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +701,10 @@
         <v>520</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>0.01153846153846154</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -798,10 +798,10 @@
         <v>1488</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>0.02217741935483871</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.0006720430107526882</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>20</v>
+        <v>0.01344086021505376</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>0.01948924731182796</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>0.01276881720430108</v>
       </c>
     </row>
     <row r="5">
@@ -900,7 +900,7 @@
         <v>1094</v>
       </c>
       <c r="L5" t="n">
-        <v>23</v>
+        <v>0.02102376599634369</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>0.004570383912248629</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>0.01371115173674589</v>
       </c>
       <c r="X5" t="n">
-        <v>32</v>
+        <v>0.02925045703839122</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>1613</v>
       </c>
       <c r="L6" t="n">
-        <v>34</v>
+        <v>0.02107873527588345</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>19</v>
+        <v>0.01177929324240546</v>
       </c>
       <c r="W6" t="n">
-        <v>25</v>
+        <v>0.01549907005579665</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>0.01425914445133292</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1093,7 @@
         <v>998</v>
       </c>
       <c r="L7" t="n">
-        <v>27</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="W7" t="n">
-        <v>27</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>0.01803607214428858</v>
       </c>
     </row>
     <row r="8">
@@ -1191,7 +1191,7 @@
         <v>1556</v>
       </c>
       <c r="L8" t="n">
-        <v>48</v>
+        <v>0.03084832904884319</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>18</v>
+        <v>0.0115681233933162</v>
       </c>
       <c r="W8" t="n">
-        <v>34</v>
+        <v>0.02185089974293059</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>0.01349614395886889</v>
       </c>
     </row>
     <row r="9">
@@ -1285,10 +1285,10 @@
         <v>521</v>
       </c>
       <c r="L9" t="n">
-        <v>17</v>
+        <v>0.03262955854126679</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>0.003838771593090211</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>0.007677543186180422</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>0.01151631477927063</v>
       </c>
     </row>
     <row r="10">
@@ -1385,7 +1385,7 @@
         <v>1402</v>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>0.02425106990014265</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>0.007845934379457917</v>
       </c>
       <c r="W10" t="n">
-        <v>34</v>
+        <v>0.02425106990014265</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>0.01569186875891583</v>
       </c>
     </row>
     <row r="11">
@@ -1482,7 +1482,7 @@
         <v>996</v>
       </c>
       <c r="L11" t="n">
-        <v>34</v>
+        <v>0.03413654618473896</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>0.005020080321285141</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>0.01706827309236948</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>0.01004016064257028</v>
       </c>
     </row>
     <row r="12">
@@ -1579,10 +1579,10 @@
         <v>782</v>
       </c>
       <c r="L12" t="n">
-        <v>29</v>
+        <v>0.0370843989769821</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.001278772378516624</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>7</v>
+        <v>0.008951406649616368</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>0.01406649616368286</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>0.01918158567774936</v>
       </c>
     </row>
     <row r="13">
@@ -1673,10 +1673,10 @@
         <v>480</v>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>0.025</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -1767,10 +1767,10 @@
         <v>518</v>
       </c>
       <c r="L14" t="n">
-        <v>16</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.001930501930501931</v>
       </c>
       <c r="N14" t="n">
         <v>7</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>0.02123552123552123</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>0.01158301158301158</v>
       </c>
     </row>
     <row r="15">
@@ -1861,10 +1861,10 @@
         <v>490</v>
       </c>
       <c r="L15" t="n">
-        <v>26</v>
+        <v>0.05306122448979592</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>4</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>0.01836734693877551</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>0.02244897959183673</v>
       </c>
     </row>
     <row r="16">
@@ -1957,10 +1957,10 @@
         <v>666</v>
       </c>
       <c r="L16" t="n">
-        <v>22</v>
+        <v>0.03303303303303303</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
@@ -1987,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>0.02102102102102102</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>0.01801801801801802</v>
       </c>
     </row>
     <row r="17">
@@ -2051,10 +2051,10 @@
         <v>456</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="N17" t="n">
         <v>6</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="W17" t="n">
-        <v>14</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="X17" t="n">
-        <v>3</v>
+        <v>0.006578947368421052</v>
       </c>
     </row>
     <row r="18">
@@ -2147,10 +2147,10 @@
         <v>1235</v>
       </c>
       <c r="L18" t="n">
-        <v>35</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.0008097165991902834</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>11</v>
+        <v>0.008906882591093117</v>
       </c>
       <c r="W18" t="n">
-        <v>24</v>
+        <v>0.0194331983805668</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>0.008906882591093117</v>
       </c>
     </row>
     <row r="19">
@@ -2242,7 +2242,7 @@
         <v>555</v>
       </c>
       <c r="L19" t="n">
-        <v>32</v>
+        <v>0.05765765765765766</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8</v>
+        <v>0.01441441441441441</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>0.01981981981981982</v>
       </c>
       <c r="X19" t="n">
-        <v>6</v>
+        <v>0.01081081081081081</v>
       </c>
     </row>
     <row r="20">
@@ -2335,10 +2335,10 @@
         <v>403</v>
       </c>
       <c r="L20" t="n">
-        <v>17</v>
+        <v>0.04218362282878412</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>0.009925558312655087</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>0.01488833746898263</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>0.0173697270471464</v>
       </c>
     </row>
     <row r="21">
@@ -2430,7 +2430,7 @@
         <v>534</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>0.0299625468164794</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>0.01310861423220974</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>0.01872659176029963</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>0.00749063670411985</v>
       </c>
     </row>
     <row r="22">
@@ -2524,10 +2524,10 @@
         <v>589</v>
       </c>
       <c r="L22" t="n">
-        <v>25</v>
+        <v>0.04244482173174872</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>0.006791171477079796</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -2554,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>0.006791171477079796</v>
       </c>
       <c r="W22" t="n">
-        <v>15</v>
+        <v>0.02546689303904924</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>0.01697792869269949</v>
       </c>
     </row>
     <row r="23">
@@ -2629,10 +2629,10 @@
         <v>874</v>
       </c>
       <c r="L23" t="n">
-        <v>30</v>
+        <v>0.03432494279176201</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>0.003432494279176201</v>
       </c>
       <c r="N23" t="n">
         <v>12</v>
@@ -2659,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>9</v>
+        <v>0.0102974828375286</v>
       </c>
       <c r="W23" t="n">
-        <v>14</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>0.02059496567505721</v>
       </c>
     </row>
     <row r="24">
@@ -2723,7 +2723,7 @@
         <v>670</v>
       </c>
       <c r="L24" t="n">
-        <v>22</v>
+        <v>0.03283582089552239</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2753,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>7</v>
+        <v>0.01044776119402985</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>0.01940298507462686</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>0.01791044776119403</v>
       </c>
     </row>
     <row r="25">
@@ -2820,7 +2820,7 @@
         <v>774</v>
       </c>
       <c r="L25" t="n">
-        <v>22</v>
+        <v>0.02842377260981912</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2850,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8</v>
+        <v>0.0103359173126615</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>0.02196382428940568</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>0.006459948320413436</v>
       </c>
     </row>
     <row r="26">
@@ -2923,10 +2923,10 @@
         <v>824</v>
       </c>
       <c r="L26" t="n">
-        <v>31</v>
+        <v>0.03762135922330097</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.001213592233009709</v>
       </c>
       <c r="N26" t="n">
         <v>10</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>5</v>
+        <v>0.006067961165048544</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>0.01577669902912621</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>0.0279126213592233</v>
       </c>
     </row>
     <row r="27">
@@ -3019,10 +3019,10 @@
         <v>923</v>
       </c>
       <c r="L27" t="n">
-        <v>26</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>0.002166847237269772</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
@@ -3049,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>0.01191765980498375</v>
       </c>
       <c r="W27" t="n">
-        <v>20</v>
+        <v>0.02166847237269772</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>0.01300108342361864</v>
       </c>
     </row>
     <row r="28">
@@ -3116,10 +3116,10 @@
         <v>1061</v>
       </c>
       <c r="L28" t="n">
-        <v>29</v>
+        <v>0.02733270499528747</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.000942507068803016</v>
       </c>
       <c r="N28" t="n">
         <v>10</v>
@@ -3146,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>7</v>
+        <v>0.006597549481621112</v>
       </c>
       <c r="W28" t="n">
-        <v>25</v>
+        <v>0.0235626767200754</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>0.008482563619227144</v>
       </c>
     </row>
     <row r="29">
@@ -3215,7 +3215,7 @@
         <v>896</v>
       </c>
       <c r="L29" t="n">
-        <v>30</v>
+        <v>0.03348214285714286</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="W29" t="n">
-        <v>13</v>
+        <v>0.01450892857142857</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>0.01450892857142857</v>
       </c>
     </row>
     <row r="30">
@@ -3312,10 +3312,10 @@
         <v>1131</v>
       </c>
       <c r="L30" t="n">
-        <v>40</v>
+        <v>0.03536693191865606</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>0.003536693191865605</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -3342,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>8</v>
+        <v>0.007073386383731211</v>
       </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="X30" t="n">
-        <v>18</v>
+        <v>0.01591511936339523</v>
       </c>
     </row>
     <row r="31">
@@ -3403,10 +3403,10 @@
         <v>154</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="N31" t="n">
         <v>5</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>0.03246753246753246</v>
       </c>
     </row>
     <row r="32">
@@ -3499,10 +3499,10 @@
         <v>936</v>
       </c>
       <c r="L32" t="n">
-        <v>32</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.001068376068376068</v>
       </c>
       <c r="N32" t="n">
         <v>9</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>8</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="W32" t="n">
-        <v>20</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="33">
@@ -3594,10 +3594,10 @@
         <v>875</v>
       </c>
       <c r="L33" t="n">
-        <v>27</v>
+        <v>0.03085714285714286</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0.001142857142857143</v>
       </c>
       <c r="N33" t="n">
         <v>10</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>8</v>
+        <v>0.009142857142857144</v>
       </c>
       <c r="W33" t="n">
-        <v>14</v>
+        <v>0.016</v>
       </c>
       <c r="X33" t="n">
-        <v>15</v>
+        <v>0.01714285714285714</v>
       </c>
     </row>
     <row r="34">
@@ -3691,7 +3691,7 @@
         <v>1127</v>
       </c>
       <c r="L34" t="n">
-        <v>33</v>
+        <v>0.0292812777284827</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>20</v>
+        <v>0.01774622892635315</v>
       </c>
       <c r="W34" t="n">
-        <v>21</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>0.009760425909494233</v>
       </c>
     </row>
     <row r="35">
@@ -3786,7 +3786,7 @@
         <v>724</v>
       </c>
       <c r="L35" t="n">
-        <v>22</v>
+        <v>0.03038674033149171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>5</v>
+        <v>0.006906077348066298</v>
       </c>
       <c r="W35" t="n">
-        <v>19</v>
+        <v>0.02624309392265193</v>
       </c>
       <c r="X35" t="n">
-        <v>7</v>
+        <v>0.009668508287292817</v>
       </c>
     </row>
     <row r="36">
@@ -3887,10 +3887,10 @@
         <v>1968</v>
       </c>
       <c r="L36" t="n">
-        <v>43</v>
+        <v>0.02184959349593496</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.0005081300813008131</v>
       </c>
       <c r="N36" t="n">
         <v>7</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>16</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="W36" t="n">
-        <v>51</v>
+        <v>0.02591463414634146</v>
       </c>
       <c r="X36" t="n">
-        <v>24</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="37">
@@ -3983,7 +3983,7 @@
         <v>763</v>
       </c>
       <c r="L37" t="n">
-        <v>26</v>
+        <v>0.03407601572739188</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4013,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>0.002621231979030144</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>0.01179554390563565</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>0.02096985583224115</v>
       </c>
     </row>
     <row r="38">
@@ -4077,7 +4077,7 @@
         <v>878</v>
       </c>
       <c r="L38" t="n">
-        <v>17</v>
+        <v>0.0193621867881549</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>0.010250569476082</v>
       </c>
       <c r="W38" t="n">
-        <v>17</v>
+        <v>0.0193621867881549</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>0.010250569476082</v>
       </c>
     </row>
     <row r="39">
@@ -4175,10 +4175,10 @@
         <v>1241</v>
       </c>
       <c r="L39" t="n">
-        <v>34</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0.0016116035455278</v>
       </c>
       <c r="N39" t="n">
         <v>8</v>
@@ -4205,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>14</v>
+        <v>0.0112812248186946</v>
       </c>
       <c r="W39" t="n">
-        <v>22</v>
+        <v>0.0177276390008058</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>0.0104754230459307</v>
       </c>
     </row>
     <row r="40">
@@ -4266,10 +4266,10 @@
         <v>93</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N40" t="n">
         <v>3</v>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>0.02150537634408602</v>
       </c>
     </row>
     <row r="41">
@@ -4361,7 +4361,7 @@
         <v>710</v>
       </c>
       <c r="L41" t="n">
-        <v>24</v>
+        <v>0.03380281690140845</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8</v>
+        <v>0.01126760563380282</v>
       </c>
       <c r="W41" t="n">
-        <v>18</v>
+        <v>0.02535211267605634</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>0.002816901408450704</v>
       </c>
     </row>
     <row r="42">
@@ -4458,7 +4458,7 @@
         <v>851</v>
       </c>
       <c r="L42" t="n">
-        <v>19</v>
+        <v>0.02232667450058754</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4488,13 +4488,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>7</v>
+        <v>0.008225616921269096</v>
       </c>
       <c r="W42" t="n">
-        <v>18</v>
+        <v>0.02115158636897767</v>
       </c>
       <c r="X42" t="n">
-        <v>3</v>
+        <v>0.003525264394829612</v>
       </c>
     </row>
     <row r="43">
@@ -4561,7 +4561,7 @@
         <v>1205</v>
       </c>
       <c r="L43" t="n">
-        <v>47</v>
+        <v>0.03900414937759336</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>11</v>
+        <v>0.009128630705394191</v>
       </c>
       <c r="W43" t="n">
-        <v>17</v>
+        <v>0.01410788381742739</v>
       </c>
       <c r="X43" t="n">
-        <v>17</v>
+        <v>0.01410788381742739</v>
       </c>
     </row>
     <row r="44">
@@ -4656,7 +4656,7 @@
         <v>642</v>
       </c>
       <c r="L44" t="n">
-        <v>16</v>
+        <v>0.0249221183800623</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4686,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5</v>
+        <v>0.00778816199376947</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>0.01557632398753894</v>
       </c>
       <c r="X44" t="n">
-        <v>6</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="45">
@@ -4752,10 +4752,10 @@
         <v>663</v>
       </c>
       <c r="L45" t="n">
-        <v>22</v>
+        <v>0.03318250377073906</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0.001508295625942685</v>
       </c>
       <c r="N45" t="n">
         <v>8</v>
@@ -4782,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>11</v>
+        <v>0.01659125188536953</v>
       </c>
       <c r="W45" t="n">
-        <v>10</v>
+        <v>0.01508295625942685</v>
       </c>
       <c r="X45" t="n">
-        <v>5</v>
+        <v>0.007541478129713424</v>
       </c>
     </row>
     <row r="46">
@@ -4847,7 +4847,7 @@
         <v>555</v>
       </c>
       <c r="L46" t="n">
-        <v>17</v>
+        <v>0.03063063063063063</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4877,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>5</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>0.02342342342342342</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0.003603603603603604</v>
       </c>
     </row>
     <row r="47">
@@ -4939,7 +4939,7 @@
         <v>343</v>
       </c>
       <c r="L47" t="n">
-        <v>12</v>
+        <v>0.03498542274052478</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4969,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>3</v>
+        <v>0.008746355685131196</v>
       </c>
       <c r="W47" t="n">
-        <v>6</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="X47" t="n">
-        <v>5</v>
+        <v>0.01457725947521866</v>
       </c>
     </row>
     <row r="48">
@@ -5034,7 +5034,7 @@
         <v>668</v>
       </c>
       <c r="L48" t="n">
-        <v>23</v>
+        <v>0.0344311377245509</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5064,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>10</v>
+        <v>0.01497005988023952</v>
       </c>
       <c r="W48" t="n">
-        <v>12</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="X48" t="n">
-        <v>2</v>
+        <v>0.002994011976047904</v>
       </c>
     </row>
     <row r="49">
@@ -5127,7 +5127,7 @@
         <v>483</v>
       </c>
       <c r="L49" t="n">
-        <v>16</v>
+        <v>0.03312629399585922</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>0.008281573498964804</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="X49" t="n">
-        <v>8</v>
+        <v>0.01656314699792961</v>
       </c>
     </row>
     <row r="50">
@@ -5221,10 +5221,10 @@
         <v>516</v>
       </c>
       <c r="L50" t="n">
-        <v>13</v>
+        <v>0.0251937984496124</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="N50" t="n">
         <v>9</v>
@@ -5251,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>5</v>
+        <v>0.009689922480620155</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>0.02131782945736434</v>
       </c>
       <c r="X50" t="n">
-        <v>5</v>
+        <v>0.009689922480620155</v>
       </c>
     </row>
     <row r="51">
@@ -5317,7 +5317,7 @@
         <v>970</v>
       </c>
       <c r="L51" t="n">
-        <v>28</v>
+        <v>0.0288659793814433</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -5347,13 +5347,13 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>21</v>
+        <v>0.02164948453608247</v>
       </c>
       <c r="W51" t="n">
-        <v>13</v>
+        <v>0.0134020618556701</v>
       </c>
       <c r="X51" t="n">
-        <v>4</v>
+        <v>0.004123711340206186</v>
       </c>
     </row>
     <row r="52">
@@ -5411,7 +5411,7 @@
         <v>564</v>
       </c>
       <c r="L52" t="n">
-        <v>17</v>
+        <v>0.0301418439716312</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5441,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>10</v>
+        <v>0.01773049645390071</v>
       </c>
       <c r="W52" t="n">
-        <v>12</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="X52" t="n">
-        <v>8</v>
+        <v>0.01418439716312057</v>
       </c>
     </row>
     <row r="53">
@@ -5503,7 +5503,7 @@
         <v>625</v>
       </c>
       <c r="L53" t="n">
-        <v>30</v>
+        <v>0.048</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5536,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>8</v>
+        <v>0.0128</v>
       </c>
       <c r="X53" t="n">
-        <v>22</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="54">
@@ -5598,7 +5598,7 @@
         <v>724</v>
       </c>
       <c r="L54" t="n">
-        <v>20</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5628,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>9</v>
+        <v>0.01243093922651934</v>
       </c>
       <c r="W54" t="n">
-        <v>14</v>
+        <v>0.01933701657458563</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>0.01657458563535912</v>
       </c>
     </row>
     <row r="55">
@@ -5690,7 +5690,7 @@
         <v>460</v>
       </c>
       <c r="L55" t="n">
-        <v>17</v>
+        <v>0.03695652173913044</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>0.006521739130434782</v>
       </c>
       <c r="W55" t="n">
-        <v>7</v>
+        <v>0.01521739130434783</v>
       </c>
       <c r="X55" t="n">
-        <v>3</v>
+        <v>0.006521739130434782</v>
       </c>
     </row>
     <row r="56">
@@ -5784,7 +5784,7 @@
         <v>450</v>
       </c>
       <c r="L56" t="n">
-        <v>15</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5814,13 +5814,13 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>5</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="W56" t="n">
-        <v>8</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>0.006666666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -5880,7 +5880,7 @@
         <v>644</v>
       </c>
       <c r="L57" t="n">
-        <v>17</v>
+        <v>0.02639751552795031</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5910,13 +5910,13 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>10</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="W57" t="n">
-        <v>10</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="X57" t="n">
-        <v>2</v>
+        <v>0.003105590062111801</v>
       </c>
     </row>
     <row r="58">
@@ -5974,7 +5974,7 @@
         <v>648</v>
       </c>
       <c r="L58" t="n">
-        <v>17</v>
+        <v>0.02623456790123457</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -6004,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>8</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="W58" t="n">
-        <v>8</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="X58" t="n">
-        <v>5</v>
+        <v>0.007716049382716049</v>
       </c>
     </row>
     <row r="59">
@@ -6068,7 +6068,7 @@
         <v>871</v>
       </c>
       <c r="L59" t="n">
-        <v>24</v>
+        <v>0.02755453501722158</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -6098,13 +6098,13 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>18</v>
+        <v>0.02066590126291619</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>0.01377726750861079</v>
       </c>
       <c r="X59" t="n">
-        <v>5</v>
+        <v>0.00574052812858783</v>
       </c>
     </row>
     <row r="60">
@@ -6161,10 +6161,10 @@
         <v>515</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>0.03106796116504854</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="N60" t="n">
         <v>8</v>
@@ -6191,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>4</v>
+        <v>0.007766990291262136</v>
       </c>
       <c r="W60" t="n">
-        <v>7</v>
+        <v>0.01359223300970874</v>
       </c>
       <c r="X60" t="n">
-        <v>8</v>
+        <v>0.01553398058252427</v>
       </c>
     </row>
     <row r="61">
@@ -6256,10 +6256,10 @@
         <v>426</v>
       </c>
       <c r="L61" t="n">
-        <v>20</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="N61" t="n">
         <v>5</v>
@@ -6286,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>5</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="W61" t="n">
-        <v>9</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="X61" t="n">
-        <v>4</v>
+        <v>0.009389671361502348</v>
       </c>
     </row>
     <row r="62">
@@ -6351,7 +6351,7 @@
         <v>566</v>
       </c>
       <c r="L62" t="n">
-        <v>18</v>
+        <v>0.03180212014134275</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6381,13 +6381,13 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>0.00530035335689046</v>
       </c>
       <c r="W62" t="n">
-        <v>15</v>
+        <v>0.0265017667844523</v>
       </c>
       <c r="X62" t="n">
-        <v>6</v>
+        <v>0.01060070671378092</v>
       </c>
     </row>
     <row r="63">
@@ -6448,10 +6448,10 @@
         <v>945</v>
       </c>
       <c r="L63" t="n">
-        <v>27</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0.001058201058201058</v>
       </c>
       <c r="N63" t="n">
         <v>9</v>
@@ -6478,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>6</v>
+        <v>0.006349206349206349</v>
       </c>
       <c r="W63" t="n">
-        <v>20</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="X63" t="n">
-        <v>10</v>
+        <v>0.01058201058201058</v>
       </c>
     </row>
     <row r="64">
@@ -6545,10 +6545,10 @@
         <v>943</v>
       </c>
       <c r="L64" t="n">
-        <v>36</v>
+        <v>0.03817603393425239</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0.001060445387062566</v>
       </c>
       <c r="N64" t="n">
         <v>9</v>
@@ -6575,13 +6575,13 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>7</v>
+        <v>0.007423117709437964</v>
       </c>
       <c r="W64" t="n">
-        <v>23</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="X64" t="n">
-        <v>14</v>
+        <v>0.01484623541887593</v>
       </c>
     </row>
     <row r="65">
@@ -6639,7 +6639,7 @@
         <v>510</v>
       </c>
       <c r="L65" t="n">
-        <v>16</v>
+        <v>0.03137254901960784</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -6669,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>1</v>
+        <v>0.00196078431372549</v>
       </c>
       <c r="W65" t="n">
-        <v>6</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="X65" t="n">
-        <v>11</v>
+        <v>0.02156862745098039</v>
       </c>
     </row>
     <row r="66">
@@ -6733,10 +6733,10 @@
         <v>511</v>
       </c>
       <c r="L66" t="n">
-        <v>24</v>
+        <v>0.04696673189823874</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0.001956947162426614</v>
       </c>
       <c r="N66" t="n">
         <v>9</v>
@@ -6763,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>6</v>
+        <v>0.01174168297455969</v>
       </c>
       <c r="W66" t="n">
-        <v>10</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="X66" t="n">
-        <v>7</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="67">
@@ -6826,10 +6826,10 @@
         <v>595</v>
       </c>
       <c r="L67" t="n">
-        <v>21</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="N67" t="n">
         <v>10</v>
@@ -6856,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>4</v>
+        <v>0.006722689075630253</v>
       </c>
       <c r="W67" t="n">
-        <v>13</v>
+        <v>0.02184873949579832</v>
       </c>
       <c r="X67" t="n">
-        <v>10</v>
+        <v>0.01680672268907563</v>
       </c>
     </row>
     <row r="68">
@@ -6920,7 +6920,7 @@
         <v>609</v>
       </c>
       <c r="L68" t="n">
-        <v>19</v>
+        <v>0.03119868637110016</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6950,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>12</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="W68" t="n">
-        <v>10</v>
+        <v>0.01642036124794746</v>
       </c>
       <c r="X68" t="n">
-        <v>5</v>
+        <v>0.008210180623973728</v>
       </c>
     </row>
     <row r="69">
@@ -7014,7 +7014,7 @@
         <v>460</v>
       </c>
       <c r="L69" t="n">
-        <v>16</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -7044,13 +7044,13 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>4</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="W69" t="n">
-        <v>12</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="X69" t="n">
-        <v>9</v>
+        <v>0.01956521739130435</v>
       </c>
     </row>
     <row r="70">
@@ -7112,7 +7112,7 @@
         <v>1167</v>
       </c>
       <c r="L70" t="n">
-        <v>34</v>
+        <v>0.02913453299057412</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -7142,13 +7142,13 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>10</v>
+        <v>0.00856898029134533</v>
       </c>
       <c r="W70" t="n">
-        <v>27</v>
+        <v>0.02313624678663239</v>
       </c>
       <c r="X70" t="n">
-        <v>11</v>
+        <v>0.009425878320479864</v>
       </c>
     </row>
   </sheetData>
